--- a/medicine/Sexualité et sexologie/Peace,_Love_et_plus_si_affinités/Peace,_Love_et_plus_si_affinités.xlsx
+++ b/medicine/Sexualité et sexologie/Peace,_Love_et_plus_si_affinités/Peace,_Love_et_plus_si_affinités.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Peace, Love et plus si affinités (Wanderlust) est un film américain réalisé par David Wain, sorti en 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George et Linda quittent New York et le stress des grandes villes, après le licenciement de George. Celui-ci espère retrouver un toit et du travail chez son frère à Atlanta. La cohabitation se passant très mal, le couple rejoint la communauté hippie d’Elysium, dont l’unique règle de fonctionnement est d’être soi-même…
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Wanderlust
 Titre français : Peace, Love et plus si affinités
@@ -562,12 +578,12 @@
 Pays d'origine :  États-Unis
 Langue originale : anglais
 Genre : Comédie romantique
-Durée : 98 minutes[1]
+Durée : 98 minutes
 Dates de sortie en salles :
 États-Unis : 24 février 2012
 France : 30 mai 2012
-États-Unis : 19 juin 2012 en DVD[2]
-France : 2 octobre 2012 en DVD[3]</t>
+États-Unis : 19 juin 2012 en DVD
+France : 2 octobre 2012 en DVD</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,9 +611,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source et légende : Version française (V. F.)[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source et légende : Version française (V. F.)
 Jennifer Aniston (V. F. : Dorothée Jemma) : Linda
 Paul Rudd (V. F. : Cédric Dumond) : George
 Justin Theroux (V. F. : Boris Rehlinger) : Seth
@@ -606,11 +624,11 @@
 Joe Lo Truglio (V. F. : Gérard Darier) : Wayne Davidson
 Alan Alda (V. F. : Bernard Tiphaine) : Carvin
 Ken Marino (V. F. : Serge Faliu) : Rick
-Michaela Watkins (V. F. : Virginie Méry) : Marisa[5]
+Michaela Watkins (V. F. : Virginie Méry) : Marisa
 Jordan Peele (V. F. : Jean-Baptiste Anoumon) : Rodney
 Kathryn Hahn : Karen
 Kerri Kenney-Silver (V. F. : Véronique Augereau) : Kathy
-Ray Liotta : lui-même[6]
+Ray Liotta : lui-même
 Linda Lavin (V. F. : Frédérique Cantrel) : Shari
 Patricia French : Beverly
 Mather Zickel (V. F. : Jérôme Rebbot) : Jim Stansel
@@ -636,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,7 +672,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il s'agit de la septième collaboration entre l'acteur Paul Rudd et le producteur Judd Apatow.
 Jennifer Aniston et Paul Rudd ont joué ensemble dans Friends dans les rôles de Rachel Green et Mike Hannigan, ainsi que dans L'Objet de mon affection en 1998.
@@ -668,7 +688,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -686,7 +706,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2012 : WanderlustGet Your Body - Baby &amp; Craig Wedren
@@ -721,7 +743,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,6 +762,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -747,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Peace,_Love_et_plus_si_affinit%C3%A9s</t>
+          <t>Peace,_Love_et_plus_si_affinités</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -766,6 +790,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
